--- a/typo_dataset/통계.xlsx
+++ b/typo_dataset/통계.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0910j\Desktop\2021-1\ChinJiIn\typo_dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hjk82\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89846DCD-5D28-4D10-8E06-8A48A65AC8C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B81CFFD-2005-426D-9A92-37AEE853B724}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="통계" sheetId="2" r:id="rId1"/>
+    <sheet name="오타목록" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="276">
   <si>
     <t>서순</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,75 +57,1068 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>드턴 - sp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>것처렁 - ㅇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발걸으을 - sp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>복합</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자구 - ㄱ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생객 - ㅣ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우열히 - ㄴ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>같을테ㅣ니까 - ㅣ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>늗고 - ㄷ&gt;ㄴ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>즘 - ㅈ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>함껙 - ㄱ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>듣전 - ㄷ&gt;ㅈ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우언히 - ㆍ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발걸으미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한번쯩 - ㅇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>않읅ㆍ기 - ㅣ&gt;ㄱ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거리엑서 - ㄱ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맛날 - ㄴ&gt;ㅅ</t>
+    <t>Tears</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ᆞ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드턴 : sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발걸으을 : sp</t>
+  </si>
+  <si>
+    <t>것처렁 : ㅇ</t>
+  </si>
+  <si>
+    <t>우언히 : ㆍ</t>
+  </si>
+  <si>
+    <t>한번쯩 : ㅇ</t>
+  </si>
+  <si>
+    <t>자구 : ㄱ</t>
+  </si>
+  <si>
+    <t>즘 : ㅈ</t>
+  </si>
+  <si>
+    <t>생객 : ㅣ</t>
+  </si>
+  <si>
+    <t>우열히 : ㄴ</t>
+  </si>
+  <si>
+    <t>같을테ㅣ니까 : ㅣ</t>
+  </si>
+  <si>
+    <t>함껙 : ㄱ</t>
+  </si>
+  <si>
+    <t>거리엑서 : ㄱ</t>
+  </si>
+  <si>
+    <t>늗고 : ㄷ&gt;ㄴ</t>
+  </si>
+  <si>
+    <t>듣전 : ㄷ&gt;ㅈ</t>
+  </si>
+  <si>
+    <t>않읅ㆍ기 : ㅣ&gt;ㄱ</t>
+  </si>
+  <si>
+    <t>맛날 : ㄴ&gt;ㅅ</t>
+  </si>
+  <si>
+    <t>모는거야 : ㄴ</t>
+  </si>
+  <si>
+    <t>수ㅡㄴ : ㄴ</t>
+  </si>
+  <si>
+    <t>아무이ㅣㄹ도 : ㅣ</t>
+  </si>
+  <si>
+    <t>앖 : ᆞl &gt; lᆞ</t>
+  </si>
+  <si>
+    <t>겧 : ㅅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잋어야해 : ㅈ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>않곘지만 : ᆞ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅣㄴᆞㄹ : ㅣㄴ &gt; 니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랄 : ㄴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잊니ㅣ : ᆞ&gt; ㄴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인파할 : ᆞ &gt; ㄴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 : ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펠 : 이별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발걸으미 : 발걸음이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잏어 : ㅅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잊 칭아 : 잊지는마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잃을거야 : ᆞ&gt;ㄴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은ㄱ뭔히 : 영원히</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈면 : ᆞ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사라믈 : sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인ㅅㄴ고있잖아 : 알고있잖아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭇는 : ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤어짐은 : ㄴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬픈 : ㄴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도로 : ㄱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뫃하게 : ㅅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ솟했나봐 : ㅇ &gt; ㅅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아빤줄 : 아픈줄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깊ᆞ기ㅣ :ㄱᆞ &gt; ᆞㄱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spㅇ : ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지낸 : ㅣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅂㄱ바고 : ㄱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드는 : ㄴ &gt; ㄷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도어 : ㅣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가라ㅡ : 가라고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈가ㅡ고 : 가라고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안싸 : ㅇ &gt; ㅅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그대에게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅣ내게 : ㅣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낫ㅇ아있는 : ㅇ&gt;ㅅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내누고 : ㅣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅅ오든 : ㅇ &gt; ㅅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>것읅다 : ㄱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어는 : ㄴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살미 : 삶이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살미 : sp &gt; ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅣㅆ겠어요 : ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사렁한 : ㅣᆞ &gt; ᆞㅣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잃ㅇ는 : ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그디ㅏ: ᆞㅣ &gt; ㅣᆞ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>있것어요 : 있겠어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살이 &gt; sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끄틴ᆞㄹ : ㄴ ㅣ&gt;ㅣㄴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람해 : ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 손을 잡아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 나비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈의 꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마에스트로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤하늘의 별을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서른 즈음에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구잖아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아피ㅣㄹ도 : ㄱ &gt; ㅣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알아 : 않아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겨울ㅇ ㅣ : sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬ㅅ나 : 몰라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큠 &gt; 꿈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활작 : ㅈ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펴ᆞ고 : ᆞ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펴ᆞ그 : ㄱᆞ &gt; ᆞㄱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람 : ㅇ (원래 사랑)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쏼짝 : ㅅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유롭ᆞ기 : 자유롭게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날기ㅐ : l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환ㅋ짝 : 활짝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쏸착 : 활짝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅈ세지상을 : 저세상을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>춤ㄴ추는 : 춤추는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>털리고 : ㄷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말새봐 : ㅅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮다사 : 나타나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고느른건 : 고르는건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운니 : sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한까 : ㄴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>느낑 : ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맘ㅇ늘 : ㄴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간는 : ㄴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진도메 : sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새려 : 내려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너오나 : 너와나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생개 : 생각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걷굉ㅆ네요 : ㅇ ㅣ &gt; ㅣ ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마주자보 : ㄱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>있는 : 있근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비낭이 : 바람이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윋노 : ㄴ &gt; ㄷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계절미 : 계절이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ ᆞ ㄹ : ㅡ &gt; ᆞ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항께 : ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견 : 걸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긴슴에 : ᆞ &gt; ㄴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인ㅅ아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만 : 한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내바 : ㄱ &gt; ㅂ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냉암이 : sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐 수 : ᆞ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진ㄱᆞ고 : ㅣ &gt; ㄱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언젭카지라도 : ㄱ &gt; ㅂ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여뭔 : sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>있어쇼 : ㅇ &gt; ㅅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깨우ㅁᆞᆞㄴ : ㅣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물들어바요 : ㄱ &gt; ㅂ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사랑인즐 : ᆞ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인앟다면 : 알았다면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잏ㅇ는 : ㅅ &gt; ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든견 : 모든걸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인ㅅ아뇨 &gt; 안아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뿐이라보 : ㄱ &gt; ㅂ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내르며 : ㅣ &gt; ㅡ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가듸한 : ㄱ &gt; ㅣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가스메 : sp &gt; ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여윗히 : 영원히</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겯ㄷ에 : sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다서싯ᆞ때부터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쳤머 : ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모짜르ㅡ뜨 : ㅡ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효팽 : ㅅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변ㅅ을따서 : ㄴ &gt; ㅅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅅ느중하니까 : ᆞ &gt; ㄴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒨다고 : ᆞㅡ &gt; ㅡᆞ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>있어쥐 : ᆞ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어새했었죠 : ㄱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먼ㅅ리서 : ㄴ &gt; ㅅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>니는 : ᆞ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손잪아 : ㅂ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가니ㄷᆞ : ㄷ ㅣ &gt; le</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>있뉸지 : ᆞ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>듸 : ᆞ &gt; ㅡ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머물ㅇ러 : ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긴슴속엔 : ᆞ &gt; ㄴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어ㅅ네 : ㅂ &gt; sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄷᆞ시 : l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>니니가 : ᆞ&gt;ㄴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>떠나보내 : ㄴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇᆞㅠㄴ : ㅡ &gt; ㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니니데 &gt; ㅣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사랑ㅇ니 : ㅣㄴ &gt; 니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>햐루 : ᆞ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤하며 : 이별하며</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우 : ㅅ &gt; ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀씩 : 조금씩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀ㅇᆞ쟈 : 멀어져</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길다 : ᆞ&gt;ㄴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애일 : ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>있구사 : ㄴ &gt; ㅅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기ᆞㅁ싸려다 : sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소늠 : 손을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날가고 : ㄱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅅ옷해 : ㅇ &gt; ㅅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숨계 : ㅣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콕 : ㄱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>까ㅡㄱ : 꽉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>까ㅡㅏㄱ : 꽉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지지만 : 쥐지만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가슷ㅇ메 : 가슴에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅅ네가 : ㅅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곝에 : ㅣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tears</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패야누</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부테 : ㅣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이었지ㅣ : ㅣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짬 좋아 : ㅈ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번ㅅ어 : ㄴ &gt; ㅅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새끼든 : ㄴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베르ㅏ체 : ㅅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅣ내 : ㅣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아깆ᆞㅇ : 지&gt;ㅣㅈ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하얀ᆞ색 : ᆞ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파로 : ㅂ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불리 : ᆞ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마에스틋ㄴᆞ로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마에스트노 : ㄴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마어스트로 : ㅣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산실 : ㄴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입는게 : 입근데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점잟 : ㄴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>떠른것 : ㄴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모쌔 : sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위쳐 : ᆞㅡ &gt; ㅡᆞ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거싀 : ㅇ &gt; ㅅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>젤틀해 : ㄴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>때오ㅗ : ㅡ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방ㄱㄷㅁ : ㄷ &gt;ㅡ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허냐: ᆞ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삶ㄴ에 : ㄴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ᆞ딀 : ㄷᆞ &gt; ᆞㄷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈ㅇ니ㅣㄴ : 바엔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스크ㅡ를 : ㅡ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청범 : 첨벙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈쿠던 : ㄱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인ㅡㄹ: 이는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숨구머미믈 : 숨구멍임을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>땃에 : ㅇ &gt; ㅅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>묵고 : ㄷ &gt; ㄱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냊 : ㅈ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자선이 : ᆞ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글리ㅢ직임을 : ᆞ&gt;ㅡ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박ㅏ둬 : ㅇ &gt; sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄷ차 : e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앉새 : 안해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악자믜 : sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낳어 : ㅅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없엊낸 : 없어 난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각수 : ㅂ &gt; ㄱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>븝레이 : 플레이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할렇룬야 : 헬랄루야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겅의실 : ㅣᆞ&gt;ᆞㅣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수님잉 : ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긴판ㅅ : ㄴ &gt; ㅅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검았지 : ㅣᆞ &gt; ᆞㅣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일올이 : ᆞ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐에야 : ᆞ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처량하다고ㅈ다 : ㅈ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ㅇ ㅏ프게 : sp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시차로ㅡ도망 :ㅡ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갂엔 : ㅂ&gt;ㄱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큭ᆞ단 : 꾸던</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮가ㅟ : 낮과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먼저 ㅏ:ㅈ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅣㅆ는 : ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅂᆞㄷ지마 : ㅡ&gt;ㄷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휘청거릴태 : ㄷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마자 : ᆞㅣ&gt;ㅣᆞ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부러웠ㅈ잉ᆞㄴ : 부러웠지만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먼ㅣ : ㅈ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엏던 : ㅂ &gt; ㅅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적ㅇ : ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간셔도 : ㄴ&gt;ㅅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아우것도:ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이ㅁ존:sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모니터애ㅣ:ㅣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기실르ㅡ:ᆞ&gt;ㅡ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히ㅢ당돼 : ᆞ&gt;ㅡ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>르ㅡ고:로꼬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시자:ㅈ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창운:ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펴쌔:ㄴ&gt;ㅅ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -157,15 +1151,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -173,13 +1188,456 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -459,25 +1917,1055 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ABC8E6-CFC2-419E-99D0-0D4A158672BD}">
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" customWidth="1"/>
-    <col min="3" max="15" width="30.69921875" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <f>SUMIF(오타목록!$A:$A, A2,오타목록!$B:$B)</f>
+        <v>51</v>
+      </c>
+      <c r="C2" s="13">
+        <f>B2/$B$7</f>
+        <v>0.19615384615384615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <f>SUMIF(오타목록!$A:$A, A3,오타목록!$B:$B)</f>
+        <v>79</v>
+      </c>
+      <c r="C3" s="13">
+        <f t="shared" ref="C3:C6" si="0">B3/$B$7</f>
+        <v>0.30384615384615382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <f>SUMIF(오타목록!$A:$A, A4,오타목록!$B:$B)</f>
+        <v>58</v>
+      </c>
+      <c r="C4" s="13">
+        <f t="shared" si="0"/>
+        <v>0.22307692307692309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <f>SUMIF(오타목록!$A:$A, A5,오타목록!$B:$B)</f>
+        <v>19</v>
+      </c>
+      <c r="C5" s="13">
+        <f t="shared" si="0"/>
+        <v>7.3076923076923081E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12">
+        <f>SUMIF(오타목록!$A:$A, A6,오타목록!$B:$B)</f>
+        <v>53</v>
+      </c>
+      <c r="C6" s="14">
+        <f t="shared" si="0"/>
+        <v>0.20384615384615384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="10">
+        <f>SUM(B2:B6)</f>
+        <v>260</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="45"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(A9,오타목록!$A:$A,0)),1,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C10" s="20">
+        <f ca="1">B10/B15</f>
+        <v>0.3</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(D9,오타목록!$A:$A,0)),1,1)</f>
+        <v>2</v>
+      </c>
+      <c r="F10" s="32">
+        <f ca="1">E10/E15</f>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(G9,오타목록!$A:$A,0)),1,1)</f>
+        <v>2</v>
+      </c>
+      <c r="I10" s="20">
+        <f ca="1">H10/H15</f>
+        <v>0.125</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(J9,오타목록!$A:$A,0)),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="20">
+        <f ca="1">K10/K15</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="44"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(A9,오타목록!$A:$A,0)),2,1)</f>
+        <v>5</v>
+      </c>
+      <c r="C11" s="20">
+        <f ca="1">B11/B15</f>
+        <v>0.25</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(D9,오타목록!$A:$A,0)),2,1)</f>
+        <v>8</v>
+      </c>
+      <c r="F11" s="32">
+        <f ca="1">E11/E15</f>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(G9,오타목록!$A:$A,0)),2,1)</f>
+        <v>6</v>
+      </c>
+      <c r="I11" s="20">
+        <f ca="1">H11/H15</f>
+        <v>0.375</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(J9,오타목록!$A:$A,0)),2,1)</f>
+        <v>7</v>
+      </c>
+      <c r="L11" s="20">
+        <f ca="1">K11/K15</f>
+        <v>0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(A9,오타목록!$A:$A,0)),3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="C12" s="20">
+        <f ca="1">B12/B15</f>
+        <v>0.15</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(D9,오타목록!$A:$A,0)),3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="F12" s="32">
+        <f ca="1">E12/E15</f>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(G9,오타목록!$A:$A,0)),3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I12" s="20">
+        <f ca="1">H12/H15</f>
+        <v>0.1875</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(J9,오타목록!$A:$A,0)),3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L12" s="20">
+        <f ca="1">K12/K15</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(A9,오타목록!$A:$A,0)),4,1)</f>
+        <v>2</v>
+      </c>
+      <c r="C13" s="20">
+        <f ca="1">B13/B15</f>
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(D9,오타목록!$A:$A,0)),4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="32">
+        <f ca="1">E13/E15</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(G9,오타목록!$A:$A,0)),4,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I13" s="20">
+        <f ca="1">H13/H15</f>
+        <v>0.1875</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(J9,오타목록!$A:$A,0)),4,1)</f>
+        <v>2</v>
+      </c>
+      <c r="L13" s="20">
+        <f ca="1">K13/K15</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="12">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(A9,오타목록!$A:$A,0)),5,1)</f>
+        <v>4</v>
+      </c>
+      <c r="C14" s="22">
+        <f ca="1">B14/B15</f>
+        <v>0.2</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="12">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(D9,오타목록!$A:$A,0)),5,1)</f>
+        <v>3</v>
+      </c>
+      <c r="F14" s="33">
+        <f ca="1">E14/E15</f>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="12">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(G9,오타목록!$A:$A,0)),5,1)</f>
+        <v>2</v>
+      </c>
+      <c r="I14" s="22">
+        <f ca="1">H14/H15</f>
+        <v>0.125</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="12">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(J9,오타목록!$A:$A,0)),5,1)</f>
+        <v>8</v>
+      </c>
+      <c r="L14" s="22">
+        <f ca="1">K14/K15</f>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="24">
+        <f ca="1">SUM(B10:B14)</f>
+        <v>20</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="37">
+        <f ca="1">SUM(E10:E14)</f>
+        <v>17</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="24">
+        <f ca="1">SUM(H10:H14)</f>
+        <v>16</v>
+      </c>
+      <c r="I15" s="26"/>
+      <c r="J15" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="37">
+        <f ca="1">SUM(K10:K14)</f>
+        <v>18</v>
+      </c>
+      <c r="L15" s="38"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(A16,오타목록!$A:$A,0)),1,1)</f>
+        <v>5</v>
+      </c>
+      <c r="C17" s="32">
+        <f ca="1">B17/B22</f>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(D16,오타목록!$A:$A,0)),1,1)</f>
+        <v>7</v>
+      </c>
+      <c r="F17" s="20">
+        <f ca="1">E17/E22</f>
+        <v>0.21212121212121213</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(G16,오타목록!$A:$A,0)),1,1)</f>
+        <v>7</v>
+      </c>
+      <c r="I17" s="32">
+        <f ca="1">H17/H22</f>
+        <v>0.13461538461538461</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(J16,오타목록!$A:$A,0)),1,1)</f>
+        <v>3</v>
+      </c>
+      <c r="L17" s="20">
+        <f ca="1">K17/K22</f>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(A16,오타목록!$A:$A,0)),2,1)</f>
+        <v>3</v>
+      </c>
+      <c r="C18" s="32">
+        <f ca="1">B18/B22</f>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(D16,오타목록!$A:$A,0)),2,1)</f>
+        <v>3</v>
+      </c>
+      <c r="F18" s="20">
+        <f ca="1">E18/E22</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(G16,오타목록!$A:$A,0)),2,1)</f>
+        <v>22</v>
+      </c>
+      <c r="I18" s="32">
+        <f ca="1">H18/H22</f>
+        <v>0.42307692307692307</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(J16,오타목록!$A:$A,0)),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L18" s="20">
+        <f ca="1">K18/K22</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(A16,오타목록!$A:$A,0)),3,1)</f>
+        <v>2</v>
+      </c>
+      <c r="C19" s="32">
+        <f ca="1">B19/B22</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(D16,오타목록!$A:$A,0)),3,1)</f>
+        <v>14</v>
+      </c>
+      <c r="F19" s="20">
+        <f ca="1">E19/E22</f>
+        <v>0.42424242424242425</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(G16,오타목록!$A:$A,0)),3,1)</f>
+        <v>7</v>
+      </c>
+      <c r="I19" s="32">
+        <f ca="1">H19/H22</f>
+        <v>0.13461538461538461</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(J16,오타목록!$A:$A,0)),3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="L19" s="20">
+        <f ca="1">K19/K22</f>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(A16,오타목록!$A:$A,0)),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="32">
+        <f ca="1">B20/B22</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(D16,오타목록!$A:$A,0)),4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="20">
+        <f ca="1">E20/E22</f>
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(G16,오타목록!$A:$A,0)),4,1)</f>
+        <v>4</v>
+      </c>
+      <c r="I20" s="32">
+        <f ca="1">H20/H22</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(J16,오타목록!$A:$A,0)),4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L20" s="20">
+        <f ca="1">K20/K22</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="12">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(A16,오타목록!$A:$A,0)),5,1)</f>
+        <v>3</v>
+      </c>
+      <c r="C21" s="33">
+        <f ca="1">B21/B22</f>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="12">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(D16,오타목록!$A:$A,0)),5,1)</f>
+        <v>8</v>
+      </c>
+      <c r="F21" s="22">
+        <f ca="1">E21/E22</f>
+        <v>0.24242424242424243</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="12">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(G16,오타목록!$A:$A,0)),5,1)</f>
+        <v>12</v>
+      </c>
+      <c r="I21" s="33">
+        <f ca="1">H21/H22</f>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="12">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(J16,오타목록!$A:$A,0)),5,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="22">
+        <f ca="1">K21/K22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="37">
+        <f ca="1">SUM(B17:B21)</f>
+        <v>13</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="24">
+        <f ca="1">SUM(E17:E21)</f>
+        <v>33</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="37">
+        <f ca="1">SUM(H17:H21)</f>
+        <v>52</v>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="24">
+        <f ca="1">SUM(K17:K21)</f>
+        <v>8</v>
+      </c>
+      <c r="L22" s="26"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23" s="43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(A23,오타목록!$A:$A,0)),1,1)</f>
+        <v>4</v>
+      </c>
+      <c r="C24" s="20">
+        <f ca="1">B24/B29</f>
+        <v>0.17391304347826086</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(D23,오타목록!$A:$A,0)),1,1)</f>
+        <v>9</v>
+      </c>
+      <c r="F24" s="32">
+        <f ca="1">E24/E29</f>
+        <v>0.29032258064516131</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(G23,오타목록!$A:$A,0)),1,1)</f>
+        <v>5</v>
+      </c>
+      <c r="I24" s="20">
+        <f ca="1">H24/H29</f>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="J24" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="K24" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(J23,오타목록!$A:$A,0)),1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L24" s="20">
+        <f ca="1">K24/K29</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(A23,오타목록!$A:$A,0)),2,1)</f>
+        <v>5</v>
+      </c>
+      <c r="C25" s="20">
+        <f ca="1">B25/B29</f>
+        <v>0.21739130434782608</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(D23,오타목록!$A:$A,0)),2,1)</f>
+        <v>7</v>
+      </c>
+      <c r="F25" s="32">
+        <f ca="1">E25/E29</f>
+        <v>0.22580645161290322</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(G23,오타목록!$A:$A,0)),2,1)</f>
+        <v>7</v>
+      </c>
+      <c r="I25" s="20">
+        <f ca="1">H25/H29</f>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="J25" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(J23,오타목록!$A:$A,0)),2,1)</f>
+        <v>5</v>
+      </c>
+      <c r="L25" s="20">
+        <f ca="1">K25/K29</f>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(A23,오타목록!$A:$A,0)),3,1)</f>
+        <v>9</v>
+      </c>
+      <c r="C26" s="20">
+        <f ca="1">B26/B29</f>
+        <v>0.39130434782608697</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(D23,오타목록!$A:$A,0)),3,1)</f>
+        <v>8</v>
+      </c>
+      <c r="F26" s="32">
+        <f ca="1">E26/E29</f>
+        <v>0.25806451612903225</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(G23,오타목록!$A:$A,0)),3,1)</f>
+        <v>4</v>
+      </c>
+      <c r="I26" s="20">
+        <f ca="1">H26/H29</f>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(J23,오타목록!$A:$A,0)),3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L26" s="20">
+        <f ca="1">K26/K29</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(A23,오타목록!$A:$A,0)),4,1)</f>
+        <v>2</v>
+      </c>
+      <c r="C27" s="20">
+        <f ca="1">B27/B29</f>
+        <v>8.6956521739130432E-2</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(D23,오타목록!$A:$A,0)),4,1)</f>
+        <v>3</v>
+      </c>
+      <c r="F27" s="32">
+        <f ca="1">E27/E29</f>
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(G23,오타목록!$A:$A,0)),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="20">
+        <f ca="1">H27/H29</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(J23,오타목록!$A:$A,0)),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="20">
+        <f ca="1">K27/K29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="12">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(A23,오타목록!$A:$A,0)),5,1)</f>
+        <v>3</v>
+      </c>
+      <c r="C28" s="22">
+        <f ca="1">B28/B29</f>
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="12">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(D23,오타목록!$A:$A,0)),5,1)</f>
+        <v>4</v>
+      </c>
+      <c r="F28" s="33">
+        <f ca="1">E28/E29</f>
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="12">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(G23,오타목록!$A:$A,0)),5,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I28" s="22">
+        <f ca="1">H28/H29</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="J28" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K28" s="12">
+        <f ca="1">OFFSET(INDEX(오타목록!$A:$A,MATCH(J23,오타목록!$A:$A,0)),5,1)</f>
+        <v>5</v>
+      </c>
+      <c r="L28" s="22">
+        <f ca="1">K28/K29</f>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="24">
+        <f ca="1">SUM(B24:B28)</f>
+        <v>23</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="24">
+        <f ca="1">SUM(E24:E28)</f>
+        <v>31</v>
+      </c>
+      <c r="F29" s="25"/>
+      <c r="G29" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="24">
+        <f ca="1">SUM(H24:H28)</f>
+        <v>17</v>
+      </c>
+      <c r="I29" s="26"/>
+      <c r="J29" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29" s="24">
+        <f ca="1">SUM(K24:K28)</f>
+        <v>12</v>
+      </c>
+      <c r="L29" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X83"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J71" sqref="J71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" customWidth="1"/>
+    <col min="3" max="3" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.875" customWidth="1"/>
+    <col min="10" max="15" width="30.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -486,52 +2974,52 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B5" si="0" xml:space="preserve"> COUNTA(C3:Z3)</f>
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B6" si="0" xml:space="preserve"> COUNTA(C3:Z3)</f>
-        <v>7</v>
-      </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -540,19 +3028,19 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -561,21 +3049,1305 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <f xml:space="preserve"> COUNTA(C6:Z6)</f>
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <f xml:space="preserve"> COUNTA(C9:Z9)</f>
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <f xml:space="preserve"> COUNTA(C10:Z10)</f>
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ref="B10:B12" si="1" xml:space="preserve"> COUNTA(C11:Z11)</f>
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <f xml:space="preserve"> COUNTA(C13:Z13)</f>
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <f xml:space="preserve"> COUNTA(C16:Z16)</f>
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <f xml:space="preserve"> COUNTA(C17:Z17)</f>
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ref="B18:B20" si="2" xml:space="preserve"> COUNTA(C18:Z18)</f>
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <f xml:space="preserve"> COUNTA(C20:Z20)</f>
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <f xml:space="preserve"> COUNTA(C23:Z23)</f>
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <f xml:space="preserve"> COUNTA(C24:Z24)</f>
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:B27" si="3" xml:space="preserve"> COUNTA(C25:Z25)</f>
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <f xml:space="preserve"> COUNTA(C27:Z27)</f>
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <f xml:space="preserve"> COUNTA(C30:Z30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <f xml:space="preserve"> COUNTA(C31:Z31)</f>
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31" t="s">
+        <v>99</v>
+      </c>
+      <c r="H31" t="s">
+        <v>101</v>
+      </c>
+      <c r="I31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32:B34" si="4" xml:space="preserve"> COUNTA(C32:Z32)</f>
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <f xml:space="preserve"> COUNTA(C34:Z34)</f>
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" t="s">
+        <v>102</v>
+      </c>
+      <c r="H34" t="s">
+        <v>103</v>
+      </c>
+      <c r="I34" t="s">
+        <v>104</v>
+      </c>
+      <c r="J34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <f xml:space="preserve"> COUNTA(C37:Z37)</f>
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" t="s">
+        <v>112</v>
+      </c>
+      <c r="G37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <f xml:space="preserve"> COUNTA(C38:Z38)</f>
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ref="B39:B41" si="5" xml:space="preserve"> COUNTA(C39:Z39)</f>
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <f xml:space="preserve"> COUNTA(C41:Z41)</f>
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <f xml:space="preserve"> COUNTA(C44:Z44)</f>
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" t="s">
+        <v>133</v>
+      </c>
+      <c r="F44" t="s">
+        <v>136</v>
+      </c>
+      <c r="G44" t="s">
+        <v>138</v>
+      </c>
+      <c r="H44" t="s">
+        <v>140</v>
+      </c>
+      <c r="I44" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <f xml:space="preserve"> COUNTA(C45:Z45)</f>
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" t="s">
+        <v>132</v>
+      </c>
+      <c r="E45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ref="B46:B47" si="6" xml:space="preserve"> COUNTA(C46:Z46)</f>
+        <v>14</v>
+      </c>
+      <c r="C46" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" t="s">
+        <v>123</v>
+      </c>
+      <c r="E46" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46" t="s">
+        <v>128</v>
+      </c>
+      <c r="G46" t="s">
+        <v>131</v>
+      </c>
+      <c r="H46" t="s">
+        <v>134</v>
+      </c>
+      <c r="I46" t="s">
+        <v>135</v>
+      </c>
+      <c r="J46" t="s">
+        <v>137</v>
+      </c>
+      <c r="K46" t="s">
+        <v>139</v>
+      </c>
+      <c r="L46" t="s">
+        <v>142</v>
+      </c>
+      <c r="M46" t="s">
+        <v>145</v>
+      </c>
+      <c r="N46" t="s">
+        <v>146</v>
+      </c>
+      <c r="O46" t="s">
+        <v>147</v>
+      </c>
+      <c r="P46" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <f xml:space="preserve"> COUNTA(C48:Z48)</f>
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" t="s">
+        <v>127</v>
+      </c>
+      <c r="E48" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" t="s">
+        <v>130</v>
+      </c>
+      <c r="G48" t="s">
+        <v>141</v>
+      </c>
+      <c r="H48" t="s">
+        <v>143</v>
+      </c>
+      <c r="I48" t="s">
+        <v>144</v>
+      </c>
+      <c r="J48" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <f xml:space="preserve"> COUNTA(C51:Z51)</f>
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>158</v>
+      </c>
+      <c r="D51" t="s">
+        <v>159</v>
+      </c>
+      <c r="E51" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <f xml:space="preserve"> COUNTA(C52:Z52)</f>
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ref="B53:B54" si="7" xml:space="preserve"> COUNTA(C53:Z53)</f>
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>155</v>
+      </c>
+      <c r="D53" t="s">
+        <v>156</v>
+      </c>
+      <c r="E53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55">
+        <f xml:space="preserve"> COUNTA(C55:Z55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <f xml:space="preserve"> COUNTA(C58:Z58)</f>
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>169</v>
+      </c>
+      <c r="D58" t="s">
+        <v>171</v>
+      </c>
+      <c r="E58" t="s">
+        <v>171</v>
+      </c>
+      <c r="F58" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59">
+        <f xml:space="preserve"> COUNTA(C59:Z59)</f>
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>164</v>
+      </c>
+      <c r="D59" t="s">
+        <v>166</v>
+      </c>
+      <c r="E59" t="s">
+        <v>173</v>
+      </c>
+      <c r="F59" t="s">
+        <v>175</v>
+      </c>
+      <c r="G59" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ref="B60:B61" si="8" xml:space="preserve"> COUNTA(C60:Z60)</f>
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60" t="s">
+        <v>142</v>
+      </c>
+      <c r="E60" t="s">
+        <v>167</v>
+      </c>
+      <c r="F60" t="s">
+        <v>168</v>
+      </c>
+      <c r="G60" t="s">
+        <v>170</v>
+      </c>
+      <c r="H60" t="s">
+        <v>172</v>
+      </c>
+      <c r="I60" t="s">
+        <v>177</v>
+      </c>
+      <c r="J60" t="s">
+        <v>180</v>
+      </c>
+      <c r="K60" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>163</v>
+      </c>
+      <c r="D61" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62">
+        <f xml:space="preserve"> COUNTA(C62:Z62)</f>
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>176</v>
+      </c>
+      <c r="D62" t="s">
+        <v>179</v>
+      </c>
+      <c r="E62" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65">
+        <f xml:space="preserve"> COUNTA(C65:Z65)</f>
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>249</v>
+      </c>
+      <c r="D65" t="s">
+        <v>250</v>
+      </c>
+      <c r="E65" t="s">
+        <v>257</v>
+      </c>
+      <c r="F65" t="s">
+        <v>258</v>
+      </c>
+      <c r="G65" t="s">
+        <v>260</v>
+      </c>
+      <c r="H65" t="s">
+        <v>263</v>
+      </c>
+      <c r="I65" t="s">
+        <v>267</v>
+      </c>
+      <c r="J65" t="s">
+        <v>273</v>
+      </c>
+      <c r="K65" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66">
+        <f xml:space="preserve"> COUNTA(C66:Z66)</f>
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>246</v>
+      </c>
+      <c r="D66" t="s">
+        <v>251</v>
+      </c>
+      <c r="E66" t="s">
+        <v>252</v>
+      </c>
+      <c r="F66" t="s">
+        <v>253</v>
+      </c>
+      <c r="G66" t="s">
+        <v>265</v>
+      </c>
+      <c r="H66" t="s">
+        <v>268</v>
+      </c>
+      <c r="I66" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B69" si="9" xml:space="preserve"> COUNTA(C67:Z67)</f>
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>247</v>
+      </c>
+      <c r="D67" t="s">
+        <v>254</v>
+      </c>
+      <c r="E67" t="s">
+        <v>259</v>
+      </c>
+      <c r="F67" t="s">
+        <v>264</v>
+      </c>
+      <c r="G67" t="s">
+        <v>266</v>
+      </c>
+      <c r="H67" t="s">
+        <v>270</v>
+      </c>
+      <c r="I67" t="s">
+        <v>271</v>
+      </c>
+      <c r="J67" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>245</v>
+      </c>
+      <c r="D68" t="s">
+        <v>248</v>
+      </c>
+      <c r="E68" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69">
+        <f xml:space="preserve"> COUNTA(C69:Z69)</f>
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>255</v>
+      </c>
+      <c r="D69" t="s">
+        <v>256</v>
+      </c>
+      <c r="E69" t="s">
+        <v>262</v>
+      </c>
+      <c r="F69" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72">
+        <f xml:space="preserve"> COUNTA(C72:Z72)</f>
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73">
+        <f xml:space="preserve"> COUNTA(C73:Z73)</f>
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>184</v>
+      </c>
+      <c r="D73" t="s">
+        <v>186</v>
+      </c>
+      <c r="E73" t="s">
+        <v>188</v>
+      </c>
+      <c r="F73" t="s">
+        <v>194</v>
+      </c>
+      <c r="G73" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ref="B74:B76" si="10" xml:space="preserve"> COUNTA(C74:Z74)</f>
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76">
+        <f xml:space="preserve"> COUNTA(C76:Z76)</f>
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>185</v>
+      </c>
+      <c r="D76" t="s">
+        <v>190</v>
+      </c>
+      <c r="E76" t="s">
+        <v>191</v>
+      </c>
+      <c r="F76" t="s">
+        <v>192</v>
+      </c>
+      <c r="G76" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79">
+        <f xml:space="preserve"> COUNTA(C79:Z79)</f>
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>202</v>
+      </c>
+      <c r="D79" t="s">
+        <v>203</v>
+      </c>
+      <c r="E79" t="s">
+        <v>208</v>
+      </c>
+      <c r="F79" t="s">
+        <v>216</v>
+      </c>
+      <c r="G79" t="s">
+        <v>228</v>
+      </c>
+      <c r="H79" t="s">
+        <v>239</v>
+      </c>
+      <c r="I79" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80">
+        <f xml:space="preserve"> COUNTA(C80:Z80)</f>
+        <v>22</v>
+      </c>
+      <c r="C80" t="s">
+        <v>152</v>
+      </c>
+      <c r="D80" t="s">
+        <v>198</v>
+      </c>
+      <c r="E80" t="s">
+        <v>153</v>
+      </c>
+      <c r="F80" t="s">
+        <v>154</v>
+      </c>
+      <c r="G80" t="s">
+        <v>199</v>
+      </c>
+      <c r="H80" t="s">
+        <v>200</v>
+      </c>
+      <c r="I80" t="s">
+        <v>204</v>
+      </c>
+      <c r="J80" t="s">
+        <v>206</v>
+      </c>
+      <c r="K80" t="s">
+        <v>207</v>
+      </c>
+      <c r="L80" t="s">
+        <v>210</v>
+      </c>
+      <c r="M80" t="s">
+        <v>211</v>
+      </c>
+      <c r="N80" t="s">
+        <v>212</v>
+      </c>
+      <c r="O80" t="s">
+        <v>214</v>
+      </c>
+      <c r="P80" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>219</v>
+      </c>
+      <c r="R80" t="s">
+        <v>220</v>
+      </c>
+      <c r="S80" t="s">
+        <v>222</v>
+      </c>
+      <c r="T80" t="s">
+        <v>223</v>
+      </c>
+      <c r="U80" t="s">
+        <v>226</v>
+      </c>
+      <c r="V80" t="s">
+        <v>233</v>
+      </c>
+      <c r="W80" t="s">
+        <v>234</v>
+      </c>
+      <c r="X80" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ref="B81:B83" si="11" xml:space="preserve"> COUNTA(C81:Z81)</f>
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>218</v>
+      </c>
+      <c r="D81" t="s">
+        <v>221</v>
+      </c>
+      <c r="E81" t="s">
+        <v>231</v>
+      </c>
+      <c r="F81" t="s">
+        <v>232</v>
+      </c>
+      <c r="G81" t="s">
+        <v>235</v>
+      </c>
+      <c r="H81" t="s">
+        <v>236</v>
+      </c>
+      <c r="I81" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="C82" t="s">
+        <v>201</v>
+      </c>
+      <c r="D82" t="s">
+        <v>205</v>
+      </c>
+      <c r="E82" t="s">
+        <v>217</v>
+      </c>
+      <c r="F82" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83">
+        <f xml:space="preserve"> COUNTA(C83:Z83)</f>
+        <v>12</v>
+      </c>
+      <c r="C83" t="s">
+        <v>151</v>
+      </c>
+      <c r="D83" t="s">
+        <v>197</v>
+      </c>
+      <c r="E83" t="s">
+        <v>209</v>
+      </c>
+      <c r="F83" t="s">
+        <v>213</v>
+      </c>
+      <c r="G83" t="s">
+        <v>225</v>
+      </c>
+      <c r="H83" t="s">
+        <v>227</v>
+      </c>
+      <c r="I83" t="s">
+        <v>229</v>
+      </c>
+      <c r="J83" t="s">
+        <v>230</v>
+      </c>
+      <c r="K83" t="s">
+        <v>238</v>
+      </c>
+      <c r="L83" t="s">
+        <v>241</v>
+      </c>
+      <c r="M83" t="s">
+        <v>243</v>
+      </c>
+      <c r="N83" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/typo_dataset/통계.xlsx
+++ b/typo_dataset/통계.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hjk82\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0910j\Desktop\2021-1\ChinJiIn\typo_dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B81CFFD-2005-426D-9A92-37AEE853B724}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6256F539-301F-4B05-A955-417452BC7C07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="통계" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="281">
   <si>
     <t>서순</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1119,6 +1119,26 @@
   </si>
   <si>
     <t>펴쌔:ㄴ&gt;ㅅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총단어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내손을 잡아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서른즈음에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오타단어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오타율</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1126,7 +1146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1148,6 +1168,13 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1560,10 +1587,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1638,8 +1668,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="백분율" xfId="1" builtinId="5"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1918,25 +1953,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ABC8E6-CFC2-419E-99D0-0D4A158672BD}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="17" max="17" width="9.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>183</v>
       </c>
@@ -1947,7 +1984,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1960,7 +1997,7 @@
         <v>0.19615384615384615</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1973,7 +2010,7 @@
         <v>0.30384615384615382</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -1986,7 +2023,7 @@
         <v>0.22307692307692309</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -1999,7 +2036,7 @@
         <v>7.3076923076923081E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
@@ -2012,7 +2049,7 @@
         <v>0.20384615384615384</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>46</v>
       </c>
@@ -2022,8 +2059,18 @@
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="O8" t="s">
+        <v>276</v>
+      </c>
+      <c r="P8" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>196</v>
       </c>
@@ -2060,9 +2107,21 @@
       <c r="L9" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="N9" s="45"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N9" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9">
+        <v>102</v>
+      </c>
+      <c r="P9">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="47">
+        <f>P9/O9</f>
+        <v>0.19607843137254902</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
@@ -2107,9 +2166,21 @@
         <f ca="1">K10/K15</f>
         <v>0</v>
       </c>
-      <c r="N10" s="44"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N10" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10">
+        <v>106</v>
+      </c>
+      <c r="P10">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="47">
+        <f t="shared" ref="Q10:Q21" si="1">P10/O10</f>
+        <v>0.16037735849056603</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
         <v>3</v>
       </c>
@@ -2154,8 +2225,21 @@
         <f ca="1">K11/K15</f>
         <v>0.3888888888888889</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11">
+        <v>81</v>
+      </c>
+      <c r="P11">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="47">
+        <f t="shared" si="1"/>
+        <v>0.19753086419753085</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
         <v>4</v>
       </c>
@@ -2200,8 +2284,21 @@
         <f ca="1">K12/K15</f>
         <v>5.5555555555555552E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N12" t="s">
+        <v>83</v>
+      </c>
+      <c r="O12">
+        <v>105</v>
+      </c>
+      <c r="P12">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="47">
+        <f t="shared" si="1"/>
+        <v>0.17142857142857143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
@@ -2246,8 +2343,21 @@
         <f ca="1">K13/K15</f>
         <v>0.1111111111111111</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N13" t="s">
+        <v>277</v>
+      </c>
+      <c r="O13">
+        <v>142</v>
+      </c>
+      <c r="P13">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="47">
+        <f t="shared" si="1"/>
+        <v>9.154929577464789E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="21" t="s">
         <v>5</v>
       </c>
@@ -2292,8 +2402,21 @@
         <f ca="1">K14/K15</f>
         <v>0.44444444444444442</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N14" t="s">
+        <v>84</v>
+      </c>
+      <c r="O14">
+        <v>191</v>
+      </c>
+      <c r="P14">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="47">
+        <f t="shared" si="1"/>
+        <v>0.17277486910994763</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="23" t="s">
         <v>46</v>
       </c>
@@ -2326,8 +2449,21 @@
         <v>18</v>
       </c>
       <c r="L15" s="38"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N15" t="s">
+        <v>85</v>
+      </c>
+      <c r="O15">
+        <v>130</v>
+      </c>
+      <c r="P15">
+        <v>52</v>
+      </c>
+      <c r="Q15" s="47">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="39" t="s">
         <v>82</v>
       </c>
@@ -2364,8 +2500,21 @@
       <c r="L16" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N16" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="O16">
+        <v>43</v>
+      </c>
+      <c r="P16">
+        <v>8</v>
+      </c>
+      <c r="Q16" s="47">
+        <f t="shared" si="1"/>
+        <v>0.18604651162790697</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="40" t="s">
         <v>2</v>
       </c>
@@ -2410,8 +2559,21 @@
         <f ca="1">K17/K22</f>
         <v>0.375</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N17" t="s">
+        <v>278</v>
+      </c>
+      <c r="O17">
+        <v>115</v>
+      </c>
+      <c r="P17">
+        <v>23</v>
+      </c>
+      <c r="Q17" s="47">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="40" t="s">
         <v>3</v>
       </c>
@@ -2456,8 +2618,21 @@
         <f ca="1">K18/K22</f>
         <v>0.125</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N18" t="s">
+        <v>88</v>
+      </c>
+      <c r="O18">
+        <v>271</v>
+      </c>
+      <c r="P18">
+        <v>31</v>
+      </c>
+      <c r="Q18" s="47">
+        <f t="shared" si="1"/>
+        <v>0.11439114391143912</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="40" t="s">
         <v>4</v>
       </c>
@@ -2502,8 +2677,21 @@
         <f ca="1">K19/K22</f>
         <v>0.375</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N19" t="s">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>140</v>
+      </c>
+      <c r="P19">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="47">
+        <f t="shared" si="1"/>
+        <v>0.12142857142857143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="40" t="s">
         <v>0</v>
       </c>
@@ -2548,8 +2736,21 @@
         <f ca="1">K20/K22</f>
         <v>0.125</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N20" t="s">
+        <v>89</v>
+      </c>
+      <c r="O20">
+        <v>166</v>
+      </c>
+      <c r="P20">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="47">
+        <f t="shared" si="1"/>
+        <v>7.2289156626506021E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="41" t="s">
         <v>5</v>
       </c>
@@ -2594,8 +2795,23 @@
         <f ca="1">K21/K22</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N21" t="s">
+        <v>46</v>
+      </c>
+      <c r="O21">
+        <f>SUM(O9:O20)</f>
+        <v>1592</v>
+      </c>
+      <c r="P21">
+        <f>SUM(P9:P20)</f>
+        <v>260</v>
+      </c>
+      <c r="Q21" s="47">
+        <f t="shared" si="1"/>
+        <v>0.16331658291457288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="42" t="s">
         <v>46</v>
       </c>
@@ -2629,7 +2845,7 @@
       </c>
       <c r="L22" s="26"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>87</v>
       </c>
@@ -2667,7 +2883,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="8" t="s">
         <v>2</v>
       </c>
@@ -2713,7 +2929,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="8" t="s">
         <v>3</v>
       </c>
@@ -2759,7 +2975,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="8" t="s">
         <v>4</v>
       </c>
@@ -2805,7 +3021,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="8" t="s">
         <v>0</v>
       </c>
@@ -2851,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="21" t="s">
         <v>5</v>
       </c>
@@ -2897,7 +3113,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="23" t="s">
         <v>46</v>
       </c>
@@ -2934,6 +3150,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2941,31 +3158,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X83"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J71" sqref="J71"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" customWidth="1"/>
-    <col min="3" max="3" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.875" customWidth="1"/>
-    <col min="10" max="15" width="30.75" customWidth="1"/>
+    <col min="1" max="1" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.69921875" customWidth="1"/>
+    <col min="3" max="3" width="25.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.8984375" customWidth="1"/>
+    <col min="10" max="15" width="30.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2989,7 +3206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3019,7 +3236,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3040,7 +3257,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -3049,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3061,17 +3278,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -3098,7 +3315,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -3122,12 +3339,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11">
-        <f t="shared" ref="B10:B12" si="1" xml:space="preserve"> COUNTA(C11:Z11)</f>
+        <f t="shared" ref="B11:B12" si="1" xml:space="preserve"> COUNTA(C11:Z11)</f>
         <v>3</v>
       </c>
       <c r="C11" t="s">
@@ -3140,7 +3357,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -3155,7 +3372,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -3176,12 +3393,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -3196,7 +3413,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -3229,12 +3446,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18">
-        <f t="shared" ref="B18:B20" si="2" xml:space="preserve"> COUNTA(C18:Z18)</f>
+        <f t="shared" ref="B18:B19" si="2" xml:space="preserve"> COUNTA(C18:Z18)</f>
         <v>3</v>
       </c>
       <c r="C18" t="s">
@@ -3247,7 +3464,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -3259,7 +3476,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -3277,12 +3494,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -3297,7 +3514,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -3324,12 +3541,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>4</v>
       </c>
       <c r="B25">
-        <f t="shared" ref="B25:B27" si="3" xml:space="preserve"> COUNTA(C25:Z25)</f>
+        <f t="shared" ref="B25:B26" si="3" xml:space="preserve"> COUNTA(C25:Z25)</f>
         <v>3</v>
       </c>
       <c r="C25" t="s">
@@ -3342,7 +3559,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -3360,7 +3577,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -3375,12 +3592,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -3389,7 +3606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -3419,19 +3636,19 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>4</v>
       </c>
       <c r="B32">
-        <f t="shared" ref="B32:B34" si="4" xml:space="preserve"> COUNTA(C32:Z32)</f>
+        <f t="shared" ref="B32:B33" si="4" xml:space="preserve"> COUNTA(C32:Z32)</f>
         <v>1</v>
       </c>
       <c r="C32" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -3446,7 +3663,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -3479,12 +3696,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -3508,7 +3725,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -3526,12 +3743,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>4</v>
       </c>
       <c r="B39">
-        <f t="shared" ref="B39:B41" si="5" xml:space="preserve"> COUNTA(C39:Z39)</f>
+        <f t="shared" ref="B39:B40" si="5" xml:space="preserve"> COUNTA(C39:Z39)</f>
         <v>2</v>
       </c>
       <c r="C39" t="s">
@@ -3541,7 +3758,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -3550,7 +3767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -3568,12 +3785,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -3603,7 +3820,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -3621,7 +3838,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -3672,7 +3889,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -3684,7 +3901,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -3717,12 +3934,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -3740,7 +3957,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -3752,7 +3969,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -3770,7 +3987,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -3782,7 +3999,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -3791,12 +4008,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -3817,7 +4034,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -3841,7 +4058,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -3877,7 +4094,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -3892,7 +4109,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -3910,12 +4127,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -3951,7 +4168,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>3</v>
       </c>
@@ -3981,12 +4198,12 @@
         <v>269</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>4</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B69" si="9" xml:space="preserve"> COUNTA(C67:Z67)</f>
+        <f t="shared" ref="B67:B68" si="9" xml:space="preserve"> COUNTA(C67:Z67)</f>
         <v>8</v>
       </c>
       <c r="C67" t="s">
@@ -4014,7 +4231,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -4032,7 +4249,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -4053,12 +4270,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -4070,7 +4287,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -4094,19 +4311,19 @@
         <v>195</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>4</v>
       </c>
       <c r="B74">
-        <f t="shared" ref="B74:B76" si="10" xml:space="preserve"> COUNTA(C74:Z74)</f>
+        <f t="shared" ref="B74:B75" si="10" xml:space="preserve"> COUNTA(C74:Z74)</f>
         <v>1</v>
       </c>
       <c r="C74" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -4115,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -4139,12 +4356,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -4174,7 +4391,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -4249,12 +4466,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>4</v>
       </c>
       <c r="B81">
-        <f t="shared" ref="B81:B83" si="11" xml:space="preserve"> COUNTA(C81:Z81)</f>
+        <f t="shared" ref="B81:B82" si="11" xml:space="preserve"> COUNTA(C81:Z81)</f>
         <v>7</v>
       </c>
       <c r="C81" t="s">
@@ -4279,7 +4496,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -4300,7 +4517,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>5</v>
       </c>
